--- a/sample_csv/VM.xlsx
+++ b/sample_csv/VM.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raghuvallikkat/Desktop/LEADSOC_CODE/CRM1.0/sample_csv/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EE2C81-0C7D-5141-BFC7-E38ADACD5B56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22000" windowHeight="10400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,170 +25,166 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
-  <si>
-    <t xml:space="preserve">Archive/Note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bench/Market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of the candidate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing rate(Lakhs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reviewer Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remark &amp; Panel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VM Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interview Schedule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vmIdPK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlueBerry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bench</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shilpa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangalore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ashok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen Reject - discuss with Suresh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen Reject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Good</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abc@email.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">closed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raghu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">screen reject. less experiance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joyce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basheera</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+  <si>
+    <t>Archive/Note</t>
+  </si>
+  <si>
+    <t>PR Date</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Bench/Market</t>
+  </si>
+  <si>
+    <t>Name of the candidate</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Billing rate(Lakhs)</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>Reviewer Name</t>
+  </si>
+  <si>
+    <t>Remark &amp; Panel</t>
+  </si>
+  <si>
+    <t>VM Comment</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Interview Schedule</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Email ID</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>vmIdPK</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>BlueBerry</t>
+  </si>
+  <si>
+    <t>Bench</t>
+  </si>
+  <si>
+    <t>Shilpa</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>ESW</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Ashok</t>
+  </si>
+  <si>
+    <t>Screen Reject - discuss with Suresh</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>Screen Reject</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>abc@email.com</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Ramya</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Albin</t>
+  </si>
+  <si>
+    <t>Software Development</t>
+  </si>
+  <si>
+    <t>ASW</t>
+  </si>
+  <si>
+    <t>Raghu</t>
+  </si>
+  <si>
+    <t>screen reject. less experiance</t>
+  </si>
+  <si>
+    <t>Murali</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Joyce</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -192,22 +193,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
@@ -215,7 +201,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -237,7 +223,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -254,7 +240,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -262,77 +248,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -391,33 +326,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X4" activeCellId="0" sqref="X4"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="18.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15.45"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="18.5" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" customWidth="1"/>
+    <col min="22" max="22" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,11 +737,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="4">
         <v>45048</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -513,13 +756,13 @@
       <c r="F2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="3">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="3">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="3">
         <v>0.8</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -528,7 +771,7 @@
       <c r="K2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="L2" s="3">
         <v>17</v>
       </c>
       <c r="M2" s="5" t="s">
@@ -543,7 +786,7 @@
       <c r="P2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="4" t="n">
+      <c r="Q2" s="4">
         <v>45048</v>
       </c>
       <c r="R2" s="5" t="s">
@@ -558,24 +801,24 @@
       <c r="U2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="5" t="n">
+      <c r="V2" s="5">
         <v>98765432</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="5" t="n">
+      <c r="X2" s="5">
         <v>1</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="Y2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>45049</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -590,13 +833,13 @@
       <c r="F3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="3">
         <v>10</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="3">
         <v>1.2</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -605,7 +848,7 @@
       <c r="K3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="L3" s="3">
         <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -620,7 +863,7 @@
       <c r="P3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="7" t="n">
+      <c r="Q3" s="7">
         <v>45049</v>
       </c>
       <c r="R3" s="5" t="s">
@@ -635,24 +878,24 @@
       <c r="U3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V3" s="5" t="n">
+      <c r="V3" s="5">
         <v>98765432</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="5" t="n">
+      <c r="X3" s="5">
         <v>2</v>
       </c>
-      <c r="Y3" s="0" t="s">
+      <c r="Y3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>45055</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -667,13 +910,13 @@
       <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="3">
         <v>2</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="3">
         <v>15</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="3">
         <v>2</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -682,7 +925,7 @@
       <c r="K4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="3">
         <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
@@ -697,7 +940,7 @@
       <c r="P4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="7" t="n">
+      <c r="Q4" s="7">
         <v>45055</v>
       </c>
       <c r="R4" s="5" t="s">
@@ -712,31 +955,26 @@
       <c r="U4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="5" t="n">
+      <c r="V4" s="5">
         <v>8765432</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="X4" s="5" t="n">
+      <c r="X4" s="5">
         <v>3</v>
       </c>
-      <c r="Y4" s="0" t="s">
-        <v>50</v>
+      <c r="Y4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" display="abc@email.com"/>
-    <hyperlink ref="U3" r:id="rId2" display="abc@email.com"/>
-    <hyperlink ref="U4" r:id="rId3" display="abc@email.com"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="U3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="U4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/sample_csv/VM.xlsx
+++ b/sample_csv/VM.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raghuvallikkat/Desktop/LEADSOC_CODE/CRM1.0/sample_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EE2C81-0C7D-5141-BFC7-E38ADACD5B56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A893914B-BC2E-B14A-99FB-D97AA77F1538}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22000" windowHeight="10400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="2960" windowWidth="22000" windowHeight="10400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,82 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
-  <si>
-    <t>Archive/Note</t>
-  </si>
-  <si>
-    <t>PR Date</t>
-  </si>
-  <si>
-    <t>Vendor</t>
-  </si>
-  <si>
-    <t>Bench/Market</t>
-  </si>
-  <si>
-    <t>Name of the candidate</t>
-  </si>
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>Exp</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Billing rate(Lakhs)</t>
-  </si>
-  <si>
-    <t>BU</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>NP</t>
-  </si>
-  <si>
-    <t>Reviewer Name</t>
-  </si>
-  <si>
-    <t>Remark &amp; Panel</t>
-  </si>
-  <si>
-    <t>VM Comment</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Interview Schedule</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>Email ID</t>
-  </si>
-  <si>
-    <t>Contact Number</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>vmIdPK</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>Active</t>
   </si>
@@ -117,42 +42,21 @@
     <t>Validation</t>
   </si>
   <si>
-    <t>ESW</t>
-  </si>
-  <si>
     <t>Bangalore</t>
   </si>
   <si>
     <t>Ashok</t>
   </si>
   <si>
-    <t>Screen Reject - discuss with Suresh</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
     <t>Sony</t>
   </si>
   <si>
-    <t>Screen Reject</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
     <t>abc@email.com</t>
   </si>
   <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Ramya</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Albin</t>
   </si>
   <si>
@@ -165,16 +69,103 @@
     <t>Raghu</t>
   </si>
   <si>
-    <t>screen reject. less experiance</t>
-  </si>
-  <si>
-    <t>Murali</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
     <t>Joyce</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Mukta</t>
+  </si>
+  <si>
+    <t>CSSW</t>
+  </si>
+  <si>
+    <t>HWBE</t>
+  </si>
+  <si>
+    <t>pendingProcessing</t>
+  </si>
+  <si>
+    <t>screenRejected</t>
+  </si>
+  <si>
+    <t>shortlisted</t>
+  </si>
+  <si>
+    <t>Manoj</t>
+  </si>
+  <si>
+    <t>customerSelect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vmIdPK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">archivalStatus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reqDate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">providedDate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vendorName </t>
+  </si>
+  <si>
+    <t xml:space="preserve">resumeSource </t>
+  </si>
+  <si>
+    <t xml:space="preserve">candidateName </t>
+  </si>
+  <si>
+    <t xml:space="preserve">skillset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">experience </t>
+  </si>
+  <si>
+    <t xml:space="preserve">education </t>
+  </si>
+  <si>
+    <t xml:space="preserve">billingRate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">noticePeriod </t>
+  </si>
+  <si>
+    <t xml:space="preserve">clientName </t>
+  </si>
+  <si>
+    <t xml:space="preserve">email </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mobile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">resumeURL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">owner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">buh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">department </t>
+  </si>
+  <si>
+    <t xml:space="preserve">interviewSchedule </t>
+  </si>
+  <si>
+    <t xml:space="preserve">resumeStatus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">remarks </t>
   </si>
 </sst>
 </file>
@@ -184,24 +175,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -230,13 +205,46 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -250,17 +258,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -644,335 +654,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="15" max="15" width="18.5" customWidth="1"/>
-    <col min="17" max="17" width="11.83203125" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" customWidth="1"/>
-    <col min="22" max="22" width="15.5" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="15" max="17" width="15.5" customWidth="1"/>
+    <col min="20" max="21" width="11.83203125" customWidth="1"/>
+    <col min="22" max="22" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="2">
+        <v>45048</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45048</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M2" s="1">
+        <v>17</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="3">
+        <v>98765432</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="T2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="2">
+        <v>45048</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45049</v>
+      </c>
+      <c r="D3" s="5">
+        <v>45049</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="P3" s="3">
+        <v>98765432</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="5">
+        <v>45049</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45055</v>
+      </c>
+      <c r="D4" s="5">
+        <v>45055</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="3">
+        <v>8765432</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="T4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="5">
+        <v>45055</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45055</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45055</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="3">
+        <v>8765432</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="S5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="U5" s="5">
+        <v>45055</v>
+      </c>
+      <c r="V5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="4">
-        <v>45048</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="3">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3">
-        <v>4</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="3">
-        <v>17</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>45048</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="5">
-        <v>98765432</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="7">
-        <v>45049</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>45049</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="5">
-        <v>98765432</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" s="5">
-        <v>2</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="7">
-        <v>45055</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>45055</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="V4" s="5">
-        <v>8765432</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="X4" s="5">
-        <v>3</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>47</v>
+      <c r="W5" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="U3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="U4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="O4" r:id="rId4" xr:uid="{BAAFE3E5-6FA0-6845-A88A-B0C9B6D2DE4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
